--- a/searching-exercise/pics/tabela.xlsx
+++ b/searching-exercise/pics/tabela.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KEILA PATRICIA\Documents\edbi-2020.6\searching-exercise\pics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0300993D-F139-4E79-9767-24203B489552}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90EBC938-0836-44B5-853B-A6D7385B5EDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3CC6D97E-525A-433B-8C30-8E0E841E34C4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t>AMOSTRA</t>
   </si>
@@ -41,15 +41,6 @@
     <t>TIPO DE PESQUISA</t>
   </si>
   <si>
-    <t>LINEAR</t>
-  </si>
-  <si>
-    <t>BINÁRIA ITERATIVA</t>
-  </si>
-  <si>
-    <t>BINÁRIA RECURSIVA</t>
-  </si>
-  <si>
     <t>3157.53</t>
   </si>
   <si>
@@ -279,6 +270,123 @@
   </si>
   <si>
     <t>1580.25</t>
+  </si>
+  <si>
+    <t>12799.3</t>
+  </si>
+  <si>
+    <t>5024.99</t>
+  </si>
+  <si>
+    <t>5598.34</t>
+  </si>
+  <si>
+    <t>5693.57</t>
+  </si>
+  <si>
+    <t>11192.4</t>
+  </si>
+  <si>
+    <t>16536.5</t>
+  </si>
+  <si>
+    <t>7989.07</t>
+  </si>
+  <si>
+    <t>5756.27</t>
+  </si>
+  <si>
+    <t>6986.56</t>
+  </si>
+  <si>
+    <t>6384.79</t>
+  </si>
+  <si>
+    <t>6554.79</t>
+  </si>
+  <si>
+    <t>6872.75</t>
+  </si>
+  <si>
+    <t>6806.86</t>
+  </si>
+  <si>
+    <t>7604.64</t>
+  </si>
+  <si>
+    <t>7061.4</t>
+  </si>
+  <si>
+    <t>8836.79</t>
+  </si>
+  <si>
+    <t>8164.52</t>
+  </si>
+  <si>
+    <t>8438.62</t>
+  </si>
+  <si>
+    <t>8721.9</t>
+  </si>
+  <si>
+    <t>9587.91</t>
+  </si>
+  <si>
+    <t>8633.97</t>
+  </si>
+  <si>
+    <t>9520.64</t>
+  </si>
+  <si>
+    <t>10382.5</t>
+  </si>
+  <si>
+    <t>10234.8</t>
+  </si>
+  <si>
+    <t>9950.12</t>
+  </si>
+  <si>
+    <t>10631.2</t>
+  </si>
+  <si>
+    <t>10819.2</t>
+  </si>
+  <si>
+    <t>11978.9</t>
+  </si>
+  <si>
+    <t>10722.3</t>
+  </si>
+  <si>
+    <t>10981.6</t>
+  </si>
+  <si>
+    <t>12285.4</t>
+  </si>
+  <si>
+    <t>13066.9</t>
+  </si>
+  <si>
+    <t>16553.3</t>
+  </si>
+  <si>
+    <t>12749.9</t>
+  </si>
+  <si>
+    <t>12906.6</t>
+  </si>
+  <si>
+    <t>12900.6</t>
+  </si>
+  <si>
+    <t>LINEAR (ms)</t>
+  </si>
+  <si>
+    <t>BINÁRIA ITERATIVA (ms)</t>
+  </si>
+  <si>
+    <t>BINÁRIA RECURSIVA (ms)</t>
   </si>
 </sst>
 </file>
@@ -342,7 +450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -354,6 +462,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -672,16 +783,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB49AA0-D9F3-435B-8BC4-2836B1110C29}">
   <dimension ref="B1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K55" sqref="K55"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.25">
@@ -694,43 +805,47 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>116</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>4</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>100000000</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="2">
+        <v>145640</v>
+      </c>
       <c r="D4" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>118000000</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E5" s="3">
         <v>663736</v>
@@ -740,12 +855,14 @@
       <c r="B6" s="1">
         <v>136000000</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
@@ -753,12 +870,14 @@
         <f>B6+18000000</f>
         <v>154000000</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="D7" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
@@ -766,12 +885,14 @@
         <f>B7+18000000</f>
         <v>172000000</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="D8" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
@@ -779,12 +900,14 @@
         <f t="shared" ref="B9:B35" si="0">B8+18000000</f>
         <v>190000000</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="D9" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
@@ -792,12 +915,14 @@
         <f t="shared" si="0"/>
         <v>208000000</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="D10" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
@@ -805,12 +930,14 @@
         <f t="shared" si="0"/>
         <v>226000000</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="D11" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
@@ -818,12 +945,14 @@
         <f t="shared" si="0"/>
         <v>244000000</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="D12" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
@@ -831,12 +960,14 @@
         <f t="shared" si="0"/>
         <v>262000000</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="D13" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
@@ -844,12 +975,14 @@
         <f t="shared" si="0"/>
         <v>280000000</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="D14" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
@@ -857,12 +990,14 @@
         <f t="shared" si="0"/>
         <v>298000000</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="D15" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
@@ -870,12 +1005,14 @@
         <f t="shared" si="0"/>
         <v>316000000</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="D16" s="3">
         <v>748299</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
@@ -883,12 +1020,14 @@
         <f t="shared" si="0"/>
         <v>334000000</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="D17" s="3">
         <v>388659</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -896,12 +1035,14 @@
         <f t="shared" si="0"/>
         <v>352000000</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="D18" s="3">
         <v>802038</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
@@ -909,12 +1050,14 @@
         <f t="shared" si="0"/>
         <v>370000000</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="D19" s="3">
         <v>761401</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
@@ -922,7 +1065,9 @@
         <f t="shared" si="0"/>
         <v>388000000</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="D20" s="3">
         <v>843222</v>
       </c>
@@ -935,9 +1080,11 @@
         <f t="shared" si="0"/>
         <v>406000000</v>
       </c>
-      <c r="C21" s="1"/>
+      <c r="C21" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="D21" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E21" s="3">
         <v>754403</v>
@@ -948,12 +1095,14 @@
         <f t="shared" si="0"/>
         <v>424000000</v>
       </c>
-      <c r="C22" s="1"/>
+      <c r="C22" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="D22" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
@@ -961,12 +1110,14 @@
         <f t="shared" si="0"/>
         <v>442000000</v>
       </c>
-      <c r="C23" s="1"/>
+      <c r="C23" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="D23" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
@@ -974,12 +1125,14 @@
         <f t="shared" si="0"/>
         <v>460000000</v>
       </c>
-      <c r="C24" s="1"/>
+      <c r="C24" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="D24" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
@@ -987,12 +1140,14 @@
         <f t="shared" si="0"/>
         <v>478000000</v>
       </c>
-      <c r="C25" s="1"/>
+      <c r="C25" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="D25" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
@@ -1000,12 +1155,14 @@
         <f t="shared" si="0"/>
         <v>496000000</v>
       </c>
-      <c r="C26" s="1"/>
+      <c r="C26" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="D26" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
@@ -1013,12 +1170,14 @@
         <f t="shared" si="0"/>
         <v>514000000</v>
       </c>
-      <c r="C27" s="1"/>
+      <c r="C27" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="D27" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
@@ -1026,12 +1185,14 @@
         <f t="shared" si="0"/>
         <v>532000000</v>
       </c>
-      <c r="C28" s="1"/>
+      <c r="C28" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="D28" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
@@ -1039,12 +1200,14 @@
         <f t="shared" si="0"/>
         <v>550000000</v>
       </c>
-      <c r="C29" s="1"/>
+      <c r="C29" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="D29" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
@@ -1052,12 +1215,14 @@
         <f t="shared" si="0"/>
         <v>568000000</v>
       </c>
-      <c r="C30" s="1"/>
+      <c r="C30" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="D30" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
@@ -1065,12 +1230,14 @@
         <f t="shared" si="0"/>
         <v>586000000</v>
       </c>
-      <c r="C31" s="1"/>
+      <c r="C31" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="D31" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
@@ -1078,12 +1245,14 @@
         <f t="shared" si="0"/>
         <v>604000000</v>
       </c>
-      <c r="C32" s="1"/>
+      <c r="C32" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="D32" s="3">
         <v>857715</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
@@ -1091,12 +1260,14 @@
         <f t="shared" si="0"/>
         <v>622000000</v>
       </c>
-      <c r="C33" s="1"/>
+      <c r="C33" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="D33" s="3">
         <v>953942</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
@@ -1104,12 +1275,14 @@
         <f t="shared" si="0"/>
         <v>640000000</v>
       </c>
-      <c r="C34" s="1"/>
+      <c r="C34" s="2">
+        <v>10919</v>
+      </c>
       <c r="D34" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
@@ -1117,12 +1290,14 @@
         <f t="shared" si="0"/>
         <v>658000000</v>
       </c>
-      <c r="C35" s="1"/>
+      <c r="C35" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="D35" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
@@ -1130,12 +1305,14 @@
         <f>B35+18000000</f>
         <v>676000000</v>
       </c>
-      <c r="C36" s="1"/>
+      <c r="C36" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="D36" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
@@ -1143,12 +1320,14 @@
         <f>B36+18000000</f>
         <v>694000000</v>
       </c>
-      <c r="C37" s="1"/>
+      <c r="C37" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="D37" s="3">
         <v>759376</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
@@ -1156,12 +1335,14 @@
         <f t="shared" ref="B38:B51" si="1">B37+18000000</f>
         <v>712000000</v>
       </c>
-      <c r="C38" s="1"/>
+      <c r="C38" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="D38" s="3">
         <v>748929</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
@@ -1169,12 +1350,14 @@
         <f t="shared" si="1"/>
         <v>730000000</v>
       </c>
-      <c r="C39" s="1"/>
+      <c r="C39" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="D39" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
@@ -1182,12 +1365,14 @@
         <f t="shared" si="1"/>
         <v>748000000</v>
       </c>
-      <c r="C40" s="1"/>
+      <c r="C40" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="D40" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
@@ -1195,12 +1380,14 @@
         <f t="shared" si="1"/>
         <v>766000000</v>
       </c>
-      <c r="C41" s="1"/>
+      <c r="C41" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="D41" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
@@ -1208,7 +1395,9 @@
         <f t="shared" si="1"/>
         <v>784000000</v>
       </c>
-      <c r="C42" s="1"/>
+      <c r="C42" s="2">
+        <v>74458</v>
+      </c>
       <c r="D42" s="3">
         <v>920503</v>
       </c>
@@ -1221,12 +1410,14 @@
         <f t="shared" si="1"/>
         <v>802000000</v>
       </c>
-      <c r="C43" s="1"/>
+      <c r="C43" s="2">
+        <v>115793</v>
+      </c>
       <c r="D43" s="3">
         <v>689535</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
@@ -1234,12 +1425,14 @@
         <f t="shared" si="1"/>
         <v>820000000</v>
       </c>
-      <c r="C44" s="1"/>
+      <c r="C44" s="2">
+        <v>207433</v>
+      </c>
       <c r="D44" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
@@ -1247,12 +1440,14 @@
         <f t="shared" si="1"/>
         <v>838000000</v>
       </c>
-      <c r="C45" s="1"/>
+      <c r="C45" s="2">
+        <v>155503</v>
+      </c>
       <c r="D45" s="3">
         <v>334819</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
@@ -1260,12 +1455,14 @@
         <f t="shared" si="1"/>
         <v>856000000</v>
       </c>
-      <c r="C46" s="1"/>
+      <c r="C46" s="2">
+        <v>81866</v>
+      </c>
       <c r="D46" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
@@ -1273,12 +1470,14 @@
         <f t="shared" si="1"/>
         <v>874000000</v>
       </c>
-      <c r="C47" s="1"/>
+      <c r="C47" s="2">
+        <v>348154</v>
+      </c>
       <c r="D47" s="3">
         <v>712602</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
@@ -1286,12 +1485,14 @@
         <f t="shared" si="1"/>
         <v>892000000</v>
       </c>
-      <c r="C48" s="1"/>
+      <c r="C48" s="2">
+        <v>323068</v>
+      </c>
       <c r="D48" s="3">
         <v>490531</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
@@ -1299,12 +1500,14 @@
         <f t="shared" si="1"/>
         <v>910000000</v>
       </c>
-      <c r="C49" s="1"/>
+      <c r="C49" s="2">
+        <v>334372</v>
+      </c>
       <c r="D49" s="3">
         <v>751651</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
@@ -1312,12 +1515,14 @@
         <f t="shared" si="1"/>
         <v>928000000</v>
       </c>
-      <c r="C50" s="1"/>
+      <c r="C50" s="2">
+        <v>390054</v>
+      </c>
       <c r="D50" s="3">
         <v>518194</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
@@ -1325,7 +1530,9 @@
         <f t="shared" si="1"/>
         <v>946000000</v>
       </c>
-      <c r="C51" s="1"/>
+      <c r="C51" s="2">
+        <v>352131</v>
+      </c>
       <c r="D51" s="3">
         <v>909373</v>
       </c>
@@ -1338,12 +1545,14 @@
         <f>B51+18000000</f>
         <v>964000000</v>
       </c>
-      <c r="C52" s="1"/>
+      <c r="C52" s="2">
+        <v>397890</v>
+      </c>
       <c r="D52" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
@@ -1351,9 +1560,11 @@
         <f>B52+18000000</f>
         <v>982000000</v>
       </c>
-      <c r="C53" s="1"/>
+      <c r="C53" s="2">
+        <v>349385</v>
+      </c>
       <c r="D53" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E53" s="3">
         <v>792486</v>
